--- a/biology/Botanique/Primevère_officinale/Primevère_officinale.xlsx
+++ b/biology/Botanique/Primevère_officinale/Primevère_officinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula veris
 La Primevère officinale (Primula veris) est une espèce de plantes à fleurs de la famille des Primulacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace.
 D'une rosette de feuilles ovales allongées émergent plusieurs hampes florales. Calices et corolles sont soudés, les pétales portent une tache orange à leur base.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes rustiques de pleine lumière des prés, des talus et des bois clairs. Elles préfèrent un sol pauvre et calcaire (pH neutre à basique)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes rustiques de pleine lumière des prés, des talus et des bois clairs. Elles préfèrent un sol pauvre et calcaire (pH neutre à basique).
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce largement répandue en Europe, plus rare vers l'ouest de la France et dans la région méditerranéenne.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les botanistes distinguent quatre sous-espèces :
 Primula veris subsp. veris ;
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,11 +667,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaire
-Les feuilles et fleurs peuvent être consommées crues ou cuites comme pour la primevère élevée (Primula eliator), la primevère acaule (Primula vulgaris) et Primula juliae. Les feuilles sont meilleures lorsqu'elles sont jeunes et apportent une note légèrement anisée un peu piquante (que l'on retrouve en plus fort dans les racines) dans une salade composée. Après le printemps, il vaut mieux les cuire en soupe ou en légume mais de préférence avec d'autres plantes car elles sont parfois un peu fortes. La friture les rend croustillantes à souhait. Elles flétrissent lorsque la plante a formé ses graines. Les fleurs sont consommées en salade mêlées à d'autres fleurs et interviennent dans différents breuvages (thés, tisanes, infusions, sirops ; aromatisation du vin et des vinaigres). Elles décorent les plats chauds ou froids et sont également utilisées confites au sucre en pâtisserie[2].
-Propriétés médicinales
-Ce sont les mêmes que celles de la primevère acaule (Primula vulgaris) et de la primevère élevée (Primula eliator)[3].
-Les fleurs, adoucissantes et calmantes, sont utilisées dans des mélanges pectoraux (tisane, vin, huile). Les feuilles sont anti-ecchymotiques. Toute la plante et particulièrement la racine ont des propriétés analgésiques, anti-spasmodiques, diurétiques, pectorales et expectorantes. Ses vertus contre les rhumatismes et les spasmes expliquent qu'elle a reçu autrefois le nom d'Herbe de la paralysie[4].
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles et fleurs peuvent être consommées crues ou cuites comme pour la primevère élevée (Primula eliator), la primevère acaule (Primula vulgaris) et Primula juliae. Les feuilles sont meilleures lorsqu'elles sont jeunes et apportent une note légèrement anisée un peu piquante (que l'on retrouve en plus fort dans les racines) dans une salade composée. Après le printemps, il vaut mieux les cuire en soupe ou en légume mais de préférence avec d'autres plantes car elles sont parfois un peu fortes. La friture les rend croustillantes à souhait. Elles flétrissent lorsque la plante a formé ses graines. Les fleurs sont consommées en salade mêlées à d'autres fleurs et interviennent dans différents breuvages (thés, tisanes, infusions, sirops ; aromatisation du vin et des vinaigres). Elles décorent les plats chauds ou froids et sont également utilisées confites au sucre en pâtisserie.
 </t>
         </is>
       </c>
@@ -662,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re_officinale</t>
+          <t>Primevère_officinale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,10 +699,50 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les mêmes que celles de la primevère acaule (Primula vulgaris) et de la primevère élevée (Primula eliator).
+Les fleurs, adoucissantes et calmantes, sont utilisées dans des mélanges pectoraux (tisane, vin, huile). Les feuilles sont anti-ecchymotiques. Toute la plante et particulièrement la racine ont des propriétés analgésiques, anti-spasmodiques, diurétiques, pectorales et expectorantes. Ses vertus contre les rhumatismes et les spasmes expliquent qu'elle a reçu autrefois le nom d'Herbe de la paralysie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Primevère_officinale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primev%C3%A8re_officinale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">"Primula" du latin "primulus", "tout premier", allusion aux fleurs précoces; "veris" signifie "du printemps"; "officinalis", médicinal.
 </t>
